--- a/Invoices/P212457_Diep.xlsx
+++ b/Invoices/P212457_Diep.xlsx
@@ -480,10 +480,10 @@
         <v>123</v>
       </c>
       <c r="D2" t="n">
-        <v>150</v>
+        <v>768</v>
       </c>
       <c r="E2" t="n">
-        <v>253.5</v>
+        <v>261.36</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
